--- a/resource/40.design/440.development/[Saturn]449crawling_insert/28아르기닌.xlsx
+++ b/resource/40.design/440.development/[Saturn]449crawling_insert/28아르기닌.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rydga\OneDrive\바탕 화면\B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.saturn\resource\40.design\440.development\[Saturn]449crawling_insert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C404DC4-343E-4379-8FEB-AD967786AE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="0" windowWidth="13125" windowHeight="15600" tabRatio="745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="7020" tabRatio="745"/>
   </bookViews>
   <sheets>
     <sheet name="TB_SLE" sheetId="6" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TB_PRD!$A$2:$O$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TB_SLE_IMG!$A$2:$O$18</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -299,7 +298,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
@@ -719,11 +718,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -789,10 +788,10 @@
     </row>
     <row r="3" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="C3" s="6">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -814,7 +813,7 @@
       </c>
       <c r="J3" s="3" t="str">
         <f ca="1">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>23</v>
@@ -833,15 +832,15 @@
       </c>
       <c r="P3" s="4" t="str">
         <f ca="1">"INSERT INTO TB_SLE VALUES (" &amp; B3 &amp; ", " &amp; C3 &amp; ", '"&amp; D3 &amp; "', '"&amp; E3 &amp; "', '"&amp; F3 &amp; "', "&amp; G3 &amp; ", '"&amp; H3 &amp; "', '" &amp; I3 &amp; "', " &amp; J3 &amp; ", " &amp; K3 &amp; ",  " &amp; L3 &amp; ", " &amp; M3 &amp; ", " &amp; N3 &amp; ", " &amp; O3 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (209, 209, '[열혈남자세트] 나우푸드 L-아르기닌+마카+아연', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/27/1000001180/1000001180_main_021.jpg', 57800, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (267, 267, '[열혈남자세트] 나우푸드 L-아르기닌+마카+아연', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/27/1000001180/1000001180_main_021.jpg', 57800, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="C4" s="6">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -863,7 +862,7 @@
       </c>
       <c r="J4" s="3" t="str">
         <f t="shared" ref="J4:J21" ca="1" si="0">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>23</v>
@@ -882,15 +881,15 @@
       </c>
       <c r="P4" s="4" t="str">
         <f t="shared" ref="P4:P21" ca="1" si="1">"INSERT INTO TB_SLE VALUES (" &amp; B4 &amp; ", " &amp; C4 &amp; ", '"&amp; D4 &amp; "', '"&amp; E4 &amp; "', '"&amp; F4 &amp; "', "&amp; G4 &amp; ", '"&amp; H4 &amp; "', '" &amp; I4 &amp; "', " &amp; J4 &amp; ", " &amp; K4 &amp; ",  " &amp; L4 &amp; ", " &amp; M4 &amp; ", " &amp; N4 &amp; ", " &amp; O4 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (210, 210, '나우푸드 L-아르기닌 1000mg 120정 3병 세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001078/1000001078_main_061.jpg', 59400, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (268, 268, '나우푸드 L-아르기닌 1000mg 120정 3병 세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001078/1000001078_main_061.jpg', 59400, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="C5" s="6">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -912,7 +911,7 @@
       </c>
       <c r="J5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>23</v>
@@ -931,15 +930,15 @@
       </c>
       <c r="P5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (211, 211, '나우푸드 L-아르기닌 1000mg 120정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/02/1000000695/1000000695_main_065.jpg', 19800, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (269, 269, '나우푸드 L-아르기닌 1000mg 120정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/02/1000000695/1000000695_main_065.jpg', 19800, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="C6" s="6">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -961,7 +960,7 @@
       </c>
       <c r="J6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>23</v>
@@ -980,15 +979,15 @@
       </c>
       <c r="P6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (212, 212, '솔가 L-아르기닌 1,000mg 90정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001175/1000001175_main_015.jpg', 24600, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (270, 270, '솔가 L-아르기닌 1,000mg 90정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001175/1000001175_main_015.jpg', 24600, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="C7" s="6">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
@@ -1029,15 +1028,15 @@
       </c>
       <c r="P7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (213, 213, '블루보넷 L-아르기닌 1000mg 100정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001917/1000001917_main_027.jpg', 23900, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (271, 271, '블루보넷 L-아르기닌 1000mg 100정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001917/1000001917_main_027.jpg', 23900, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="C8" s="6">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -1059,7 +1058,7 @@
       </c>
       <c r="J8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>23</v>
@@ -1078,15 +1077,15 @@
       </c>
       <c r="P8" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (214, 214, '블루보넷 타겟 초이스 블러드 프레셔 90식물성캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001960/1000001960_main_061.jpg', 41100, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (272, 272, '블루보넷 타겟 초이스 블러드 프레셔 90식물성캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001960/1000001960_main_061.jpg', 41100, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="C9" s="6">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -1108,7 +1107,7 @@
       </c>
       <c r="J9" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>23</v>
@@ -1127,15 +1126,15 @@
       </c>
       <c r="P9" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (215, 215, '소스내추럴스 L-아르기닌 프리폼 1000mg 100정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/04/1000001218/1000001218_main_02.jpg', 19800, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (273, 273, '소스내추럴스 L-아르기닌 프리폼 1000mg 100정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/04/1000001218/1000001218_main_02.jpg', 19800, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="C10" s="6">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -1157,7 +1156,7 @@
       </c>
       <c r="J10" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>23</v>
@@ -1176,15 +1175,15 @@
       </c>
       <c r="P10" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (216, 216, '나우푸드 L-아르기닌 500mg 250베지캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/02/1000001206/1000001206_main_065.jpg', 22500, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (274, 274, '나우푸드 L-아르기닌 500mg 250베지캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/02/1000001206/1000001206_main_065.jpg', 22500, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="C11" s="6">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
@@ -1206,7 +1205,7 @@
       </c>
       <c r="J11" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>23</v>
@@ -1225,15 +1224,15 @@
       </c>
       <c r="P11" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (217, 217, '컨트리라이프 L 아르기닌 500mg 100캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/05/28/1000000377/1000000377_main_011.jpg', 18800, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (275, 275, '컨트리라이프 L 아르기닌 500mg 100캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/05/28/1000000377/1000000377_main_011.jpg', 18800, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
-        <v>218</v>
+        <v>276</v>
       </c>
       <c r="C12" s="6">
-        <v>218</v>
+        <v>276</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
@@ -1255,7 +1254,7 @@
       </c>
       <c r="J12" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>23</v>
@@ -1274,15 +1273,15 @@
       </c>
       <c r="P12" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (218, 218, '닥터스베스트 서방형 아르기닌 120정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/09/36/1000002926/1000002926_main_091.jpg', 29800, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (276, 276, '닥터스베스트 서방형 아르기닌 120정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/09/36/1000002926/1000002926_main_091.jpg', 29800, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="C13" s="6">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -1304,7 +1303,7 @@
       </c>
       <c r="J13" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>23</v>
@@ -1323,15 +1322,15 @@
       </c>
       <c r="P13" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (219, 219, '소스내추럴 아르기닌 100정+ 마카 60정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/20/01/04/1000002187/1000002187_main_023.jpg', 30900, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (277, 277, '소스내추럴 아르기닌 100정+ 마카 60정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/20/01/04/1000002187/1000002187_main_023.jpg', 30900, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="C14" s="6">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
@@ -1353,7 +1352,7 @@
       </c>
       <c r="J14" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>23</v>
@@ -1372,15 +1371,15 @@
       </c>
       <c r="P14" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (220, 220, '닥터스베스트 니트로시진 아르기닌 60정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/09/36/1000002927/1000002927_main_060.jpg', 39600, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (278, 278, '닥터스베스트 니트로시진 아르기닌 60정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/09/36/1000002927/1000002927_main_060.jpg', 39600, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
-        <v>221</v>
+        <v>279</v>
       </c>
       <c r="C15" s="6">
-        <v>221</v>
+        <v>279</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
@@ -1421,15 +1420,15 @@
       </c>
       <c r="P15" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (221, 221, '컨트리라이프 맥스 아미노 90캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/05/28/1000000382/1432780653362s0.jpg', 19900, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (279, 279, '컨트리라이프 맥스 아미노 90캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/05/28/1000000382/1432780653362s0.jpg', 19900, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="C16" s="6">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="D16" t="s">
         <v>49</v>
@@ -1451,7 +1450,7 @@
       </c>
       <c r="J16" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>23</v>
@@ -1470,15 +1469,15 @@
       </c>
       <c r="P16" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (222, 222, '1+1나우푸드 L-아르기닌 1000mg 120정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/05/22/1000001939/1000001939_main_056.jpg', 32900, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (280, 280, '1+1나우푸드 L-아르기닌 1000mg 120정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/05/22/1000001939/1000001939_main_056.jpg', 32900, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
-        <v>223</v>
+        <v>281</v>
       </c>
       <c r="C17" s="6">
-        <v>223</v>
+        <v>281</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -1500,7 +1499,7 @@
       </c>
       <c r="J17" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>23</v>
@@ -1519,15 +1518,15 @@
       </c>
       <c r="P17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (223, 223, '솔가 L-아르기닌 500mg 250 식물성캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000501/1000000501_main_016.jpg', 27500, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (281, 281, '솔가 L-아르기닌 500mg 250 식물성캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000501/1000000501_main_016.jpg', 27500, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" s="6">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="C18" s="6">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
@@ -1549,7 +1548,7 @@
       </c>
       <c r="J18" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>23</v>
@@ -1568,15 +1567,15 @@
       </c>
       <c r="P18" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (224, 224, '자로우 L-아르기닌 1000mg 100정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/03/22/1000001121/1000001121_main_044.jpg', 16740, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (282, 282, '자로우 L-아르기닌 1000mg 100정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/03/22/1000001121/1000001121_main_044.jpg', 16740, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="C19" s="6">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
@@ -1598,7 +1597,7 @@
       </c>
       <c r="J19" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>23</v>
@@ -1617,15 +1616,15 @@
       </c>
       <c r="P19" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (225, 225, '자로우 아르기닌+오르니틴 750mg 100정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001166/147910749762s0.jpg', 15810, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (283, 283, '자로우 아르기닌+오르니틴 750mg 100정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001166/147910749762s0.jpg', 15810, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="C20" s="6">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
@@ -1666,15 +1665,15 @@
       </c>
       <c r="P20" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (226, 226, '솔가 L-아르기닌 1,000mg 90정 3병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001409/1000001409_main_091.jpg', 47700, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (284, 284, '솔가 L-아르기닌 1,000mg 90정 3병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001409/1000001409_main_091.jpg', 47700, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" s="6">
-        <v>227</v>
+        <v>285</v>
       </c>
       <c r="C21" s="6">
-        <v>227</v>
+        <v>285</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
@@ -1696,7 +1695,7 @@
       </c>
       <c r="J21" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>23</v>
@@ -1715,7 +1714,7 @@
       </c>
       <c r="P21" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (227, 227, '나우푸드 L-아르기닌 파우더 1lbs(454g)', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/03/21/1000001097/1000001097_main_017.jpg', 32600, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (285, 285, '나우푸드 L-아르기닌 파우더 1lbs(454g)', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/03/21/1000001097/1000001097_main_017.jpg', 32600, '2', '8', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
   </sheetData>
@@ -1726,7 +1725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1921,7 +1920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F091BC-945F-4AFC-A78F-31DD57129174}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
